--- a/MEI/output/MEI_keyNEW.xlsx
+++ b/MEI/output/MEI_keyNEW.xlsx
@@ -1,37 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MEI_key" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MEI_key" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+  <si>
+    <t>databank</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>db_table</t>
+  </si>
+  <si>
+    <t>db_code</t>
+  </si>
+  <si>
+    <t>desc_e</t>
+  </si>
+  <si>
+    <t>desc_c</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>name_ord</t>
+  </si>
+  <si>
+    <t>snl</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>form_e</t>
+  </si>
+  <si>
+    <t>form_c</t>
+  </si>
+  <si>
+    <t>MEI</t>
+  </si>
+  <si>
+    <t>A122SRCR03IOB.a</t>
+  </si>
+  <si>
+    <t>A128PCHO05AL.a</t>
+  </si>
+  <si>
+    <t>Q122SRCR03IOB.q</t>
+  </si>
+  <si>
+    <t>DB_A_0001</t>
+  </si>
+  <si>
+    <t>DB_Q_0001</t>
+  </si>
+  <si>
+    <t>data001</t>
+  </si>
+  <si>
+    <t>data002</t>
+  </si>
+  <si>
+    <t>Sales &gt; Retail trade &gt; Car registration &gt; Passenger cars, Index 2015=100, Units of Index - Austria</t>
+  </si>
+  <si>
+    <t>Price Weights &gt; Consumer Prices &gt; Housing &gt; Housing excluding imputed rent, Annual Level, Units of Per thousand - Denmark</t>
+  </si>
+  <si>
+    <t>SLRTCR03IXOB</t>
+  </si>
+  <si>
+    <t>PWCPHO05AL</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>1957-Q1</t>
+  </si>
+  <si>
+    <t>2022-Q1</t>
+  </si>
+  <si>
+    <t>Units of Index</t>
+  </si>
+  <si>
+    <t>Units of Per thousand</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Price Weights</t>
+  </si>
+  <si>
+    <t>2015=100</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +174,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +193,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,319 +490,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>databank</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>db_table</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>db_code</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>desc_e</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>desc_c</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>name_ord</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>snl</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>form_e</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>form_c</t>
-        </is>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:16">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MEI</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A122SRCR03IOB.a</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DB_A_0001</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>data001</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Sales &gt; Retail trade &gt; Car registration &gt; Passenger cars, Index 2015=100, Units of Index - Austria</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>SLRTCR03IXOB</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2">
         <v>1957</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>2021</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Units of Index</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>AUT</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2015=100</t>
-        </is>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MEI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A128PCHO05AL.a</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DB_A_0001</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>data002</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Price Weights &gt; Consumer Prices &gt; Housing &gt; Housing excluding imputed rent, Annual Level, Units of Per thousand - Denmark</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>PWCPHO05AL</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3">
         <v>2008</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>2021</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Units of Per thousand</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>DNK</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Price Weights</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MEI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Q122SRCR03IOB.q</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>data001</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sales &gt; Retail trade &gt; Car registration &gt; Passenger cars, Index 2015=100, Units of Index - Austria</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>SLRTCR03IXOB</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1957-Q1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Units of Index</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>AUT</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2015=100</t>
-        </is>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MEI/output/MEI_keyNEW.xlsx
+++ b/MEI/output/MEI_keyNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A193CPALCYIOB.a</t>
+          <t>M920BSCC03INS.m</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DB_A_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -469,24 +469,28 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; All items &gt; All items: City &gt; Total, Index 2015=100, Units of Index - Australia</t>
+          <t>Business tendency surveys (manufacturing) &gt; Confidence indicators &gt; Composite indicators &gt; OECD Indicator, Normalised, seasonally adjusted (normal = 100), Units of Index - G20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CPALCY01IXOB</t>
+          <t>BSCICP03IXNSA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1949</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2021</v>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1995-04</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -495,7 +499,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>G-20</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -503,19 +507,15 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>G20</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Consumer Price Index</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2015=100</t>
-        </is>
-      </c>
+          <t>Business tendency surveys (manufacturing)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -528,42 +528,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q193CPALCYIOB.q</t>
+          <t>M920CSCICPINS.m</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>data001</t>
+          <t>data002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Consumer Price Index &gt; All items &gt; All items: City &gt; Total, Index 2015=100, Units of Index - Australia</t>
+          <t>Consumer opinion surveys &gt; Confidence indicators &gt; Composite indicators &gt; OECD Indicator, Normalised, seasonally adjusted (normal = 100), Units of Index - G20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CPALCY01IXOB</t>
+          <t>CSCICP03IXNSA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1948-Q3</t>
+          <t>1980-01</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>G-20</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -581,167 +581,15 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>G20</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Consumer Price Index</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2015=100</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MEI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Q924NEKP01GPS.q</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>data002</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>National Accounts &gt; GDP by Expenditure &gt; Constant Prices &gt; Gross Domestic Product - Total, Growth rate previous period, s.a., Units of Percentage - China</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NAEXKP01GPSA</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2011-Q1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2022-Q3</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Units of Percentage</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>CHN</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>National Accounts</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MEI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Q924NEKP01GYS.q</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DB_Q_0001</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>data003</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>National Accounts &gt; GDP by Expenditure &gt; Constant Prices &gt; Gross Domestic Product - Total, Growth rate same period previous year, s.a., Units of Percentage - China</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>NAEXKP01GYSA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1993-Q1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2022-Q3</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Units of Percentage</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>CHN</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>National Accounts</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
+          <t>Consumer opinion surveys</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MEI/output/MEI_keyNEW.xlsx
+++ b/MEI/output/MEI_keyNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>M920BSCC03INS.m</t>
+          <t>A158PRCNTOQL.a</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -469,37 +469,33 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Business tendency surveys (manufacturing) &gt; Confidence indicators &gt; Composite indicators &gt; OECD Indicator, Normalised, seasonally adjusted (normal = 100), Units of Index - G20</t>
+          <t>Production &gt; Construction &gt; Total construction &gt; Total, Quarterly level, Millions of Yen - Japan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>BSCICP03IXNSA</t>
+          <t>PRCNTO01QL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1995-04</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1994</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2021</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Yen</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>G-20</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -507,12 +503,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>G20</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Business tendency surveys (manufacturing)</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
@@ -528,12 +524,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>M920CSCICPINS.m</t>
+          <t>A158PRCNTOQLS.a</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,37 +539,33 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Consumer opinion surveys &gt; Confidence indicators &gt; Composite indicators &gt; OECD Indicator, Normalised, seasonally adjusted (normal = 100), Units of Index - G20</t>
+          <t>Production &gt; Construction &gt; Total construction &gt; Total, Quarterly level, s.a., Millions of Yen - Japan</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CSCICP03IXNSA</t>
+          <t>PRCNTO01QLSA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1980-01</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1994</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2021</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Yen</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>G-20</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -581,15 +573,8807 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A186PRCNTOQL.a</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Production &gt; Construction &gt; Total construction &gt; Total, Quarterly level, Millions of Turkish Lira - Turkey</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PRCNTO01QL</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1998</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Millions of Turkish Lira</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A186PRCNTOQLS.a</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Production &gt; Construction &gt; Total construction &gt; Total, Quarterly level, s.a., Millions of Turkish Lira - Turkey</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PRCNTO01QLSA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1998</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Millions of Turkish Lira</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A238C80110GP.a</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Food, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CP180110GP</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A238C80110GY.a</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>data006</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Food, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CP180110GY</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A238C80111GP.a</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>data007</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Cereals and cereal products (ND), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CP180111GP</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A238C80111GY.a</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>data008</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Cereals and cereal products (ND), Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CP180111GY</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A238C80112GP.a</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>data009</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Live animals, meat and other parts of slaughtered land animals (ND), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CP180112GP</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>9</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A238C80112GY.a</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>data010</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Live animals, meat and other parts of slaughtered land animals (ND), Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CP180112GY</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A238C80113GP.a</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>data011</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Fish and other seafood (ND), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CP180113GP</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A238C80113GY.a</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>data012</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Fish and other seafood (ND), Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>CP180113GY</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A238C80114GP.a</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>data013</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Milk, other dairy products and eggs (ND), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CP180114GP</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>13</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A238C80114GY.a</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Milk, other dairy products and eggs (ND), Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CP180114GY</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>14</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A238C80115GP.a</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Oils and fats (ND), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CP180115GP</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>15</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A238C80115GY.a</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Oils and fats (ND), Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>CP180115GY</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>16</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A238C80116GP.a</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Fruits and nuts (ND), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>CP180116GP</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>17</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A238C80116GY.a</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Fruits and nuts (ND), Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>CP180116GY</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>18</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A238C80117GP.a</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>data019</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Vegetables, tubers, plantains, cooking bananas and pulses (ND), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CP180117GP</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>19</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A238C80117GY.a</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>data020</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Vegetables, tubers, plantains, cooking bananas and pulses (ND), Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CP180117GY</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>20</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A238C80118GP.a</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>data021</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Sugar, confectionery and desserts (ND), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>CP180118GP</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>21</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A238C80118GY.a</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>data022</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Sugar, confectionery and desserts (ND), Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>CP180118GY</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>22</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A238C80119GP.a</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>data023</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Ready-made food and other food products n.e.c. (ND), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>CP180119GP</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>23</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A238C80119GY.a</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>data024</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Ready-made food and other food products n.e.c. (ND), Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>CP180119GY</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>24</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A238C80120GP.a</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>data025</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Non-Alcoholic beverages, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CP180120GP</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>25</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A238C80120GY.a</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>data026</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Food and non-Alcoholic beverages (COICOP 01) &gt; Non-Alcoholic beverages, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>CP180120GY</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>26</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A238C80210GP.a</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>data027</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Alcoholic beverages, tobacco and narcotics (COICOP 02) &gt; Alcoholic beverages, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>CP180210GP</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>27</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A238C80210GY.a</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>data028</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Alcoholic beverages, tobacco and narcotics (COICOP 02) &gt; Alcoholic beverages, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CP180210GY</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>28</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A238C80230GP.a</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>data029</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Alcoholic beverages, tobacco and narcotics (COICOP 02) &gt; Tobacco, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>CP180230GP</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>29</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A238C80230GY.a</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>data030</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Alcoholic beverages, tobacco and narcotics (COICOP 02) &gt; Tobacco, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CP180230GY</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>30</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A238C80310GP.a</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>data031</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Clothing and footwear (COICOP 03) &gt; Clothing, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>CP180310GP</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>31</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A238C80310GY.a</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>data032</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Clothing and footwear (COICOP 03) &gt; Clothing, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>CP180310GY</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>32</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A238C80320GP.a</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>data033</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Clothing and footwear (COICOP 03) &gt; Footwear, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CP180320GP</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>33</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A238C80320GY.a</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>data034</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Clothing and footwear (COICOP 03) &gt; Footwear, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>CP180320GY</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>34</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A238C80431GP.a</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>data035</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Security equipment &amp; materials for maintenance &amp; repair of dwellings (ND), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CP180431GP</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>35</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A238C80432GP.a</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>data036</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Services for the maintenance, repair and security of the dwelling (S), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>CP180432GP</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>36</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A238C80451GP.a</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>data037</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Electricity (ND), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>CP180451GP</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>37</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A238C80452GP.a</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>data038</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Housing, water, electricity, gas and other fuels (COICOP 04) &gt; Gas (ND), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CP180452GP</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>38</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A238C80510GP.a</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>data039</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Furniture, furnishings, and loose carpets, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CP180510GP</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>39</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A238C80510GY.a</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>data040</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Furniture, furnishings, and loose carpets, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>CP180510GY</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>40</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A238C80520GP.a</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>data041</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Household textiles, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>CP180520GP</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>41</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A238C80520GY.a</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>data042</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Household textiles, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CP180520GY</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>42</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A238C80530GP.a</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>data043</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Household appliances, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CP180530GP</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>43</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A238C80530GY.a</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>data044</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Household appliances, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CP180530GY</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>44</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A238C80540GP.a</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>data045</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Glassware, tableware and household utensils, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CP180540GP</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>45</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A238C80540GY.a</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>data046</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Glassware, tableware and household utensils, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CP180540GY</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>46</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A238C80560GP.a</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>data047</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Goods and services for routine household maintenance, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>CP180560GP</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>47</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A238C80560GY.a</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>data048</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Furnishings, household equipment and routine household maintenance (COICOP &gt; Goods and services for routine household maintenance, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>CP180560GY</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>48</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A238C80610GP.a</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>data049</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Medicines and health products, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CP180610GP</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>49</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A238C80610GY.a</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>data050</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Medicines and health products, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>CP180610GY</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>50</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A238C80620GP.a</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>data051</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Out-patient services, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>CP180620GP</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>51</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A238C80620GY.a</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>data052</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Out-patient services, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CP180620GY</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>52</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A238C80630GP.a</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>data053</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Inpatient care services, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CP180630GP</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>53</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A238C80630GY.a</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>data054</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Inpatient care services, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>CP180630GY</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>54</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A238C80640GP.a</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>data055</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Other health services, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>CP180640GP</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>55</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A238C80640GY.a</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>data056</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Health (COICOP 06) &gt; Other health services, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>CP180640GY</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>56</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A238C80710GP.a</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>data057</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Purchase of vehicles, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>CP180710GP</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>57</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A238C80710GY.a</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>data058</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Purchase of vehicles, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>CP180710GY</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>58</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A238C80720GP.a</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>data059</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Operation of personal transport equipment, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>CP180720GP</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>59</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A238C80720GY.a</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>data060</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Operation of personal transport equipment, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>CP180720GY</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>60</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A238C80721GP.a</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>data061</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Parts and accessories for personal transport equipment (SD), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>CP180721GP</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>61</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A238C80721GY.a</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>data062</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Parts and accessories for personal transport equipment (SD), Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>CP180721GY</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>62</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A238C80723GP.a</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>data063</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Maintenance and repair of personal transport equipment (S), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>CP180723GP</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>63</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A238C80723GY.a</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>data064</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Maintenance and repair of personal transport equipment (S), Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>CP180723GY</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>64</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A238C80724GP.a</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>data065</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Other services in respect of personal transport equipment (S), Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>CP180724GP</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>65</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A238C80724GY.a</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>data066</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Other services in respect of personal transport equipment (S), Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>CP180724GY</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>66</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A238C80730GP.a</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>data067</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Passenger transport services, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>CP180730GP</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>67</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A238C80730GY.a</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>data068</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Transport (COICOP 07) &gt; Passenger transport services, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>CP180730GY</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>68</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A238C80810GP.a</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>data069</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Information and communication (COICOP 08) &gt; Information and communication equipment, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>CP180810GP</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>69</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A238C80810GY.a</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>data070</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Information and communication (COICOP 08) &gt; Information and communication equipment, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>CP180810GY</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>70</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A238C80830GP.a</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>data071</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Information and communication (COICOP 08) &gt; Information and communication services, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>CP180830GP</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>71</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A238C80830GY.a</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>data072</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Information and communication (COICOP 08) &gt; Information and communication services, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>CP180830GY</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>72</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A238C80910GP.a</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>data073</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Recreational durables, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>CP180910GP</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>73</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A238C80910GY.a</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>data074</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Recreational durables, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>CP180910GY</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>74</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A238C80930GP.a</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>data075</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Garden products and pets, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>CP180930GP</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>75</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A238C80930GY.a</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>data076</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Garden products and pets, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>CP180930GY</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>76</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A238C80940GP.a</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>data077</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Recreational services, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>CP180940GP</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>77</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A238C80940GY.a</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>data078</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Recreational services, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>CP180940GY</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>78</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A238C80960GP.a</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>data079</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Cultural services, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>CP180960GP</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>79</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A238C80960GY.a</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>data080</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Cultural services, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>CP180960GY</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>80</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A238C80970GP.a</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>data081</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Newspapers, books and stationery, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>CP180970GP</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>81</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A238C80970GY.a</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>data082</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Newspapers, books and stationery, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>CP180970GY</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>82</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A238C80980GP.a</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>data083</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Package holidays, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>CP180980GP</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>83</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A238C80980GY.a</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>data084</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Recreation, sport and culture  (COICOP 09) &gt; Package holidays, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>CP180980GY</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>84</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A238C81110GP.a</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>data085</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Restaurants and accommodation services (COICOP 11) &gt; Food and beverage serving services, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>CP181110GP</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>85</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A238C81110GY.a</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>data086</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Restaurants and accommodation services (COICOP 11) &gt; Food and beverage serving services, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>CP181110GY</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>86</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A238C81120GP.a</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>data087</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Restaurants and accommodation services (COICOP 11) &gt; Accommodation services, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>CP181120GP</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>87</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A238C81120GY.a</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>data088</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Restaurants and accommodation services (COICOP 11) &gt; Accommodation services, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>CP181120GY</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>88</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A238C81210GP.a</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>data089</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Insurance and financial services (COICOP 12) &gt; Insurance, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>CP181210GP</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>89</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A238C81210GY.a</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>data090</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Insurance and financial services (COICOP 12) &gt; Insurance, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>CP181210GY</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>90</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A238C81220GP.a</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>data091</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Insurance and financial services (COICOP 12) &gt; Financial services, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>CP181220GP</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>91</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A238C81220GY.a</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>data092</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Insurance and financial services (COICOP 12) &gt; Financial services, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>CP181220GY</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>92</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A238C81310GP.a</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>data093</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Personal care, social protection, miscellaneous goods &amp; services (COICOP 13 &gt; Personal care, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>CP181310GP</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>93</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A238C81310GY.a</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>data094</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Personal care, social protection, miscellaneous goods &amp; services (COICOP 13 &gt; Personal care, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>CP181310GY</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>94</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A238C81320GP.a</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>data095</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Personal care, social protection, miscellaneous goods &amp; services (COICOP 13 &gt; Other personal effects, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>CP181320GP</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>95</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A238C81320GY.a</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>data096</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Personal care, social protection, miscellaneous goods &amp; services (COICOP 13 &gt; Other personal effects, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>CP181320GY</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>96</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A238C81330GP.a</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>data097</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Personal care, social protection, miscellaneous goods &amp; services (COICOP 13 &gt; Social protection, Growth rate previous period, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>CP181330GP</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>97</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A238C81330GY.a</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>data098</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Consumer Price Index &gt; COICOP 2018 &gt; Personal care, social protection, miscellaneous goods &amp; services (COICOP 13 &gt; Social protection, Growth rate same period previous year, Units of Percentage - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>CP181330GY</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>98</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Consumer Price Index</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A273P6FT02CCU.a</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>data099</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>International investment position BPM6 &gt; Financial derivatives &gt; Total &gt; Assets, US Dollars, sum over component sub-periods, Millions of US Dollar - Mexico</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>P6FDTT02CXCU</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>2009</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Millions of US Dollar</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>99</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>International investment position BPM6</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A273P6FT03CCU.a</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>data100</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>International investment position BPM6 &gt; Financial derivatives &gt; Total &gt; Liabilities, US Dollars, sum over component sub-periods, Millions of US Dollar - Mexico</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>P6FDTT03CXCU</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2009</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2021</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Millions of US Dollar</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>100</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>International investment position BPM6</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>M920BSCC03.m</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>data001</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>OECD Standardised BCI, Amplitude adjusted (Long term average=100), sa, Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>BSCICP03</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1995-04</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>101</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
           <t>G20</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Consumer opinion surveys</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Business Confidence Indicator (BCI)</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>M920CSCICP.m</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>data002</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>OECD Standardised CCI, Amplitude adjusted (Long term average=100), sa, Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>CSCICP03</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1980-01</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>102</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Consumer Confidence Indicator (CCI)</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>M920LOGPGY.m</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>12-month rate of change of the reference series (GDP), Units of Percentage - G20</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>LORSGPOR_GYSA</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1961-02</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>103</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Reference Series (GDP)</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>M920LOGPIX.m</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Original, seasonally adjusted (GDP), Units of Index(2010=100) - G20</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>LORSGPOR_IXOBSA</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1960-02</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>104</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Reference Series (GDP)</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>2010=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>M920LOGPNO.m</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Normalised (GDP), Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>LORSGPNO</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1960-02</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>105</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Reference Series (GDP)</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>M920LOGPNOSTS.m</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>data006</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD &gt; Reference series &gt; Gross Domestic Product (GDP) &gt; Normalised, Level, rate or national currency, s.a., Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>LORSGPNOSTSA</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1960-02</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>106</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>M920LOGPORGYS.m</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>data007</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD &gt; Reference series &gt; Gross Domestic Product (GDP) &gt; Original series, Growth rate same period previous year, s.a., Units of Percentage - G20</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>LORSGPORGYSA</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1961-02</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>107</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>M920LOGPORIOS.m</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>data008</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD &gt; Reference series &gt; Gross Domestic Product (GDP) &gt; Original series, Index 2015=100, s.a., Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>LORSGPORIXOBSA</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1960-02</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>108</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>M920LOGPRT.m</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>data009</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Ratio to trend (GDP), Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>LORSGPRT</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1960-02</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>109</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Reference Series (GDP)</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>M920LOGPRTSTS.m</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>data010</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD &gt; Reference series &gt; Gross Domestic Product (GDP) &gt; Ratio to trend, Level, rate or national currency, s.a., Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>LORSGPRTSTSA</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1960-02</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>110</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>M920LOGPTD.m</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>data011</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Trend (GDP), Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>LORSGPTD</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1960-02</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>111</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Reference Series (GDP)</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>M920LOGPTDSTS.m</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>data012</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD &gt; Reference series &gt; Gross Domestic Product (GDP) &gt; Trend, Level, rate or national currency, s.a., Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>LORSGPTDSTSA</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1960-02</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>112</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>M920LOTOAA.m</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>data013</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Amplitude adjusted (CLI), Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>LOLITOAA</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1961-01</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>113</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Composite Leading Indiator (CLI)</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>M920LOTOAASTS.m</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD &gt; Leading indicators &gt; CLI &gt; Amplitude adjusted, Level, rate or national currency, s.a., Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>LOLITOAASTSA</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1961-01</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>114</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>M920LOTOGY.m</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>12-month rate of change of the trend restored CLI, Units of Percentage - G20</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>LOLITOTR_GYSA</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1962-01</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>115</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Composite Leading Indiator (CLI)</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>M920LOTONO.m</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Normalised (CLI), Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>LOLITONO</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1961-01</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>116</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Composite Leading Indiator (CLI)</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>M920LOTONOSTS.m</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD &gt; Leading indicators &gt; CLI &gt; Normalised, Level, rate or national currency, s.a., Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>LOLITONOSTSA</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1961-01</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>117</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>M920LOTOST.m</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Trend restored (CLI), Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>LOLITOTR_STSA</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1961-01</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>118</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Composite Leading Indiator (CLI)</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>M920LOTOTRGYS.m</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>data019</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD &gt; Leading indicators &gt; CLI &gt; Trend restored, Growth rate same period previous year, s.a., Units of Percentage - G20</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>LOLITOTRGYSA</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1962-01</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>119</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>M920LOTOTRSTS.m</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>data020</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD &gt; Leading indicators &gt; CLI &gt; Trend restored, Level, rate or national currency, s.a., Units of Index - G20</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>LOLITOTRSTSA</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1961-01</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>G-20</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>120</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>G20</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Leading Indicators OECD</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Q158PRCNTOQL.q</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>data001</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Production &gt; Construction &gt; Total construction &gt; Total, Quarterly level, Millions of Yen - Japan</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>PRCNTO01QL</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Millions of Yen</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>121</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Q158PRCNTOQLS.q</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>data002</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Production &gt; Construction &gt; Total construction &gt; Total, Quarterly level, s.a., Millions of Yen - Japan</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>PRCNTO01QLSA</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Millions of Yen</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>122</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Q186PRCNTOQL.q</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Production &gt; Construction &gt; Total construction &gt; Total, Quarterly level, Millions of Turkish Lira - Turkey</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>PRCNTO01QL</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Millions of Turkish Lira</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>123</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Q186PRCNTOQLS.q</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Production &gt; Construction &gt; Total construction &gt; Total, Quarterly level, s.a., Millions of Turkish Lira - Turkey</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>PRCNTO01QLSA</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Millions of Turkish Lira</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>124</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Q273P6FT02CCU.q</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>International investment position BPM6 &gt; Financial derivatives &gt; Total &gt; Assets, US Dollars, sum over component sub-periods, Millions of US Dollar - Mexico</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>P6FDTT02CXCU</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Millions of US Dollar</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>125</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>International investment position BPM6</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Q273P6FT03CCU.q</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>data006</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>International investment position BPM6 &gt; Financial derivatives &gt; Total &gt; Liabilities, US Dollars, sum over component sub-periods, Millions of US Dollar - Mexico</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>P6FDTT03CXCU</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Millions of US Dollar</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>126</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>International investment position BPM6</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MEI/output/MEI_keyNEW.xlsx
+++ b/MEI/output/MEI_keyNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q156SRTO01MLS.q</t>
+          <t>A727LCEN01GPS.a</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -469,37 +469,33 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Volume, Monthly level, s.a., Millions of Canadian Dollar - Canada</t>
+          <t>Labour Compensation &gt; Earnings &gt; Manufacturing &gt; Hourly, Growth rate previous period, s.a., Units of Percentage - European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SLRTTO01MLSA</t>
+          <t>LCEAMN01GPSA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2023-Q1</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1997</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2022</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Millions of Canadian Dollar</t>
+          <t>Units of Percentage</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>EU27_2020</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -507,15 +503,899 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Labour Compensation</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A727LCEN01GYS.a</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>data002</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Labour Compensation &gt; Earnings &gt; Manufacturing &gt; Hourly, Growth rate same period previous year, s.a., Units of Percentage - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>LCEAMN01GYSA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1997</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Labour Compensation</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A968ODCNPIGPS.a</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Growth rate previous period, s.a., Units of Percentage - Romania</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ODCNPI03GPSA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Orders</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A968ODCNPIGYS.a</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Growth rate same period previous year, s.a., Units of Percentage - Romania</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ODCNPI03GYSA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>2001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Orders</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A968ODCNPIIOS.a</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DB_A_0001</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Index 2015=100, s.a., Units of Index - Romania</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ODCNPI03IXOBSA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Orders</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>M968ODCNPIGPS.m</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>data001</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Growth rate previous period, s.a., Units of Percentage - Romania</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ODCNPI03GPSA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2000-02</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Orders</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>M968ODCNPIGYS.m</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>data002</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Growth rate same period previous year, s.a., Units of Percentage - Romania</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ODCNPI03GYSA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2001-01</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Orders</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>M968ODCNPIIOS.m</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Index 2015=100, s.a., Units of Index - Romania</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ODCNPI03IXOBSA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Orders</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Q727LCEN01GPS.q</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>data001</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Labour Compensation &gt; Earnings &gt; Manufacturing &gt; Hourly, Growth rate previous period, s.a., Units of Percentage - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>LCEAMN01GPSA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2023-Q1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>9</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Labour Compensation</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Q727LCEN01GYS.q</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>data002</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Labour Compensation &gt; Earnings &gt; Manufacturing &gt; Hourly, Growth rate same period previous year, s.a., Units of Percentage - European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>LCEAMN01GYSA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2023-Q1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>EU27_2020</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>European Union – 27 countries (from 01/02/2020)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Labour Compensation</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Q968ODCNPIGPS.q</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Growth rate previous period, s.a., Units of Percentage - Romania</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ODCNPI03GPSA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2023-Q1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Orders</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Q968ODCNPIGYS.q</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Growth rate same period previous year, s.a., Units of Percentage - Romania</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ODCNPI03GYSA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2023-Q1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Orders</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Q968ODCNPIIOS.q</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Index 2015=100, s.a., Units of Index - Romania</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ODCNPI03IXOBSA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2023-Q1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>13</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Orders</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MEI/output/MEI_keyNEW.xlsx
+++ b/MEI/output/MEI_keyNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A727LCEN01GPS.a</t>
+          <t>A158PMTO01IBS.a</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -469,12 +469,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Labour Compensation &gt; Earnings &gt; Manufacturing &gt; Hourly, Growth rate previous period, s.a., Units of Percentage - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, s.a., Units of Index(2015=100) - Japan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>LCEAMN01GPSA</t>
+          <t>PRMNTO01IXNBSA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -483,19 +483,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1997</v>
+        <v>1955</v>
       </c>
       <c r="J2" t="n">
         <v>2022</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>EU27_2020</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -503,15 +503,19 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Labour Compensation</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -524,7 +528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A727LCEN01GYS.a</t>
+          <t>A158PMTO01INB.a</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -539,12 +543,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Labour Compensation &gt; Earnings &gt; Manufacturing &gt; Hourly, Growth rate same period previous year, s.a., Units of Percentage - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>LCEAMN01GYSA</t>
+          <t>PRMNTO01IXNB</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -553,19 +557,19 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1997</v>
+        <v>1955</v>
       </c>
       <c r="J3" t="n">
         <v>2022</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>EU27_2020</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -573,15 +577,19 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Labour Compensation</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2020=100</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -594,7 +602,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A968ODCNPIGPS.a</t>
+          <t>A158PRENTOIBS.a</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -609,12 +617,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Growth rate previous period, s.a., Units of Percentage - Romania</t>
+          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, s.a., Units of Index(2015=100) - Japan</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ODCNPI03GPSA</t>
+          <t>PRENTO01IXNBSA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -623,19 +631,19 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="J4" t="n">
         <v>2022</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -643,15 +651,19 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Orders</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -664,7 +676,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A968ODCNPIGYS.a</t>
+          <t>A158PRENTOINB.a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -679,12 +691,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Growth rate same period previous year, s.a., Units of Percentage - Romania</t>
+          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ODCNPI03GYSA</t>
+          <t>PRENTO01IXNB</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -693,19 +705,19 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="J5" t="n">
         <v>2022</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -713,15 +725,19 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Orders</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2020=100</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -734,7 +750,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A968ODCNPIIOS.a</t>
+          <t>A158PRIT01IBS.a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -749,12 +765,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Index 2015=100, s.a., Units of Index - Romania</t>
+          <t>Production &gt; Industry &gt; Total industry &gt; Total industry excluding construction, Index source base, s.a., Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ODCNPI03IXOBSA</t>
+          <t>PRINTO01IXNBSA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -763,7 +779,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2000</v>
+        <v>1955</v>
       </c>
       <c r="J6" t="n">
         <v>2022</v>
@@ -775,7 +791,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -783,17 +799,17 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Orders</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2015=100</t>
+          <t>2020=100</t>
         </is>
       </c>
     </row>
@@ -808,52 +824,48 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>M968ODCNPIGPS.m</t>
+          <t>A158PRIT01INB.a</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>data001</t>
+          <t>data006</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Growth rate previous period, s.a., Units of Percentage - Romania</t>
+          <t>Production &gt; Industry &gt; Total industry &gt; Total industry excluding construction, Index source base, Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ODCNPI03GPSA</t>
+          <t>PRINTO01IXNB</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2000-02</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2023-05</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1955</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2022</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -861,15 +873,19 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Orders</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2020=100</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -882,52 +898,48 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>M968ODCNPIGYS.m</t>
+          <t>A158STMNTOIBS.a</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>data002</t>
+          <t>data007</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Growth rate same period previous year, s.a., Units of Percentage - Romania</t>
+          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Total manufacturing &gt; Volume, Index source base, s.a., Units of Index(2015=100) - Japan</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ODCNPI03GYSA</t>
+          <t>STMNTO01IXNBSA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2001-01</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2023-05</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1955</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2022</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -935,15 +947,19 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Orders</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
+          <t>Short term statistics</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -956,43 +972,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>M968ODCNPIIOS.m</t>
+          <t>A158STMNTOINB.a</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>data003</t>
+          <t>data008</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Index 2015=100, s.a., Units of Index - Romania</t>
+          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Total manufacturing &gt; Volume, Index source base, Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ODCNPI03IXOBSA</t>
+          <t>STMNTO01IXNB</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2000-01</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2023-05</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1955</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2022</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1001,7 +1013,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1009,17 +1021,17 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Orders</t>
+          <t>Short term statistics</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2015=100</t>
+          <t>2020=100</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1046,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q727LCEN01GPS.q</t>
+          <t>M158PMTO01IBS.m</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1049,37 +1061,37 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Labour Compensation &gt; Earnings &gt; Manufacturing &gt; Hourly, Growth rate previous period, s.a., Units of Percentage - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, s.a., Units of Index(2015=100) - Japan</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>LCEAMN01GPSA</t>
+          <t>PRMNTO01IXNBSA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1996-Q2</t>
+          <t>1955-01</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2023-Q1</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>EU27_2020</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1087,15 +1099,19 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Labour Compensation</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1108,12 +1124,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q727LCEN01GYS.q</t>
+          <t>M158PMTO01INB.m</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1123,37 +1139,37 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Labour Compensation &gt; Earnings &gt; Manufacturing &gt; Hourly, Growth rate same period previous year, s.a., Units of Percentage - European Union – 27 countries (from 01/02/2020)</t>
+          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>LCEAMN01GYSA</t>
+          <t>PRMNTO01IXNB</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1997-Q1</t>
+          <t>1955-01</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2023-Q1</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>EU27_2020</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1161,15 +1177,19 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>European Union – 27 countries (from 01/02/2020)</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Labour Compensation</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2020=100</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1182,12 +1202,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q968ODCNPIGPS.q</t>
+          <t>M158PRENTOIBS.m</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1197,37 +1217,37 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Growth rate previous period, s.a., Units of Percentage - Romania</t>
+          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, s.a., Units of Index(2015=100) - Japan</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ODCNPI03GPSA</t>
+          <t>PRENTO01IXNBSA</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2000-Q2</t>
+          <t>1998-01</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2023-Q1</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1235,15 +1255,19 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Orders</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1256,12 +1280,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q968ODCNPIGYS.q</t>
+          <t>M158PRENTOINB.m</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1271,37 +1295,37 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Growth rate same period previous year, s.a., Units of Percentage - Romania</t>
+          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ODCNPI03GYSA</t>
+          <t>PRENTO01IXNB</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2001-Q1</t>
+          <t>1998-01</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2023-Q1</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Units of Percentage</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1309,15 +1333,19 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Orders</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2020=100</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1330,12 +1358,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q968ODCNPIIOS.q</t>
+          <t>M158PRIT01IBS.m</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1345,27 +1373,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Orders &gt; Construction &gt; Permits issued &gt; Dwellings / Residential buildings, Index 2015=100, s.a., Units of Index - Romania</t>
+          <t>Production &gt; Industry &gt; Total industry &gt; Total industry excluding construction, Index source base, s.a., Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ODCNPI03IXOBSA</t>
+          <t>PRINTO01IXNBSA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2000-Q1</t>
+          <t>1955-01</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2023-Q1</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1375,7 +1403,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1383,17 +1411,875 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Orders</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
+          <t>2020=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>M158PRIT01INB.m</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>data006</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Production &gt; Industry &gt; Total industry &gt; Total industry excluding construction, Index source base, Units of Index(2020=100) - Japan</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>PRINTO01IXNB</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1955-01</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>14</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2020=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>M158STMNTOIBS.m</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>data007</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Total manufacturing &gt; Volume, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>STMNTO01IXNBSA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1955-01</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>15</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Short term statistics</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>M158STMNTOINB.m</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>data008</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Total manufacturing &gt; Volume, Index source base, Units of Index(2020=100) - Japan</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>STMNTO01IXNB</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1955-01</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>16</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Short term statistics</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2020=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Q158PMTO01IBS.q</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>data001</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>PRMNTO01IXNBSA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1955-Q1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>17</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Q158PMTO01INB.q</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>data002</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, Units of Index(2020=100) - Japan</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>PRMNTO01IXNB</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1955-Q1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>18</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2020=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Q158PRENTOIBS.q</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PRENTO01IXNBSA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>19</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Q158PRENTOINB.q</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, Units of Index(2020=100) - Japan</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>PRENTO01IXNB</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>20</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2020=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Q158PRIT01IBS.q</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Production &gt; Industry &gt; Total industry &gt; Total industry excluding construction, Index source base, s.a., Units of Index(2020=100) - Japan</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>PRINTO01IXNBSA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1955-Q1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>21</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2020=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Q158PRIT01INB.q</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>data006</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Production &gt; Industry &gt; Total industry &gt; Total industry excluding construction, Index source base, Units of Index(2020=100) - Japan</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>PRINTO01IXNB</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1955-Q1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>22</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2020=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Q158STMNTOIBS.q</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>data007</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Total manufacturing &gt; Volume, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>STMNTO01IXNBSA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1955-Q1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>23</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Short term statistics</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Q158STMNTOINB.q</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>data008</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Total manufacturing &gt; Volume, Index source base, Units of Index(2020=100) - Japan</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>STMNTO01IXNB</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1955-Q1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>24</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Short term statistics</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2020=100</t>
         </is>
       </c>
     </row>

--- a/MEI/output/MEI_keyNEW.xlsx
+++ b/MEI/output/MEI_keyNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A158PMTO01IBS.a</t>
+          <t>A158STMNISIBS.a</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -469,12 +469,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Inventories to shipments &gt; Total, Index source base, s.a., Units of Index(2015=100) - Japan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PRMNTO01IXNBSA</t>
+          <t>STMNIS01IXNBSA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1955</v>
+        <v>1998</v>
       </c>
       <c r="J2" t="n">
         <v>2022</v>
@@ -508,7 +508,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Short term statistics</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A158PMTO01INB.a</t>
+          <t>A158STMNISINB.a</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Inventories to shipments &gt; Total, Index source base, Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PRMNTO01IXNB</t>
+          <t>STMNIS01IXNB</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1955</v>
+        <v>1998</v>
       </c>
       <c r="J3" t="n">
         <v>2022</v>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Short term statistics</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A158PRENTOIBS.a</t>
+          <t>A158WSCNDWIOB.a</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+          <t>Work Started &gt; Construction &gt; Dwellings / Residential buildings &gt; Total, Index 2015=100, Units of Index - Japan</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PRENTO01IXNBSA</t>
+          <t>WSCNDW01IXOB</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1998</v>
+        <v>1955</v>
       </c>
       <c r="J4" t="n">
         <v>2022</v>
@@ -656,7 +656,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Work Started</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A158PRENTOINB.a</t>
+          <t>A199SWTO01ML.a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Volume, Monthly level, Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PRENTO01IXNB</t>
+          <t>SLWHTO01ML</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -725,19 +725,15 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>2020=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -750,7 +746,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A158PRIT01IBS.a</t>
+          <t>A199SWTO01MLS.a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -765,12 +761,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Production &gt; Industry &gt; Total industry &gt; Total industry excluding construction, Index source base, s.a., Units of Index(2020=100) - Japan</t>
+          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Volume, Monthly level, s.a., Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PRINTO01IXNBSA</t>
+          <t>SLWHTO01MLSA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -779,19 +775,19 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1955</v>
+        <v>1998</v>
       </c>
       <c r="J6" t="n">
         <v>2022</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -799,19 +795,15 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>2020=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -824,7 +816,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A158PRIT01INB.a</t>
+          <t>A199SWTO02ML.a</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -839,12 +831,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Production &gt; Industry &gt; Total industry &gt; Total industry excluding construction, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Value, Monthly level, Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PRINTO01IXNB</t>
+          <t>SLWHTO02ML</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -853,19 +845,19 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1955</v>
+        <v>1998</v>
       </c>
       <c r="J7" t="n">
         <v>2022</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -873,19 +865,15 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2020=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -898,7 +886,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A158STMNTOIBS.a</t>
+          <t>A199SWTO02MLS.a</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -913,12 +901,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Total manufacturing &gt; Volume, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Value, Monthly level, s.a., Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>STMNTO01IXNBSA</t>
+          <t>SLWHTO02MLSA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -927,19 +915,19 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1955</v>
+        <v>1998</v>
       </c>
       <c r="J8" t="n">
         <v>2022</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -947,19 +935,15 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Short term statistics</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2015=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -972,39 +956,43 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A158STMNTOINB.a</t>
+          <t>M158STMNISIBS.m</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DB_A_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>data008</t>
+          <t>data001</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Total manufacturing &gt; Volume, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Inventories to shipments &gt; Total, Index source base, s.a., Units of Index(2015=100) - Japan</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>STMNTO01IXNB</t>
+          <t>STMNIS01IXNBSA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1955</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2022</v>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1955-01</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1031,7 +1019,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2020=100</t>
+          <t>2015=100</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1034,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>M158PMTO01IBS.m</t>
+          <t>M158STMNISINB.m</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1056,17 +1044,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>data001</t>
+          <t>data002</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Inventories to shipments &gt; Total, Index source base, Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PRMNTO01IXNBSA</t>
+          <t>STMNIS01IXNB</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1076,12 +1064,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1955-01</t>
+          <t>1998-01</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1104,12 +1092,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Short term statistics</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2015=100</t>
+          <t>2020=100</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1112,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>M158PMTO01INB.m</t>
+          <t>M158WSCNDWIOB.m</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1134,17 +1122,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>data002</t>
+          <t>data003</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Work Started &gt; Construction &gt; Dwellings / Residential buildings &gt; Total, Index 2015=100, Units of Index - Japan</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PRMNTO01IXNB</t>
+          <t>WSCNDW01IXOB</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1159,7 +1147,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1182,12 +1170,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Work Started</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2020=100</t>
+          <t>2015=100</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1190,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>M158PRENTOIBS.m</t>
+          <t>M199SWTO01ML.m</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1212,17 +1200,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>data003</t>
+          <t>data004</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Volume, Monthly level, Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PRENTO01IXNBSA</t>
+          <t>SLWHTO01ML</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1237,17 +1225,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1255,19 +1243,15 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2015=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1280,7 +1264,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>M158PRENTOINB.m</t>
+          <t>M199SWTO01MLS.m</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1290,17 +1274,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>data004</t>
+          <t>data005</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Volume, Monthly level, s.a., Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PRENTO01IXNB</t>
+          <t>SLWHTO01MLSA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1315,17 +1299,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1333,19 +1317,15 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2020=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1358,7 +1338,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>M158PRIT01IBS.m</t>
+          <t>M199SWTO02ML.m</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1368,17 +1348,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>data005</t>
+          <t>data006</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Production &gt; Industry &gt; Total industry &gt; Total industry excluding construction, Index source base, s.a., Units of Index(2020=100) - Japan</t>
+          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Value, Monthly level, Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PRINTO01IXNBSA</t>
+          <t>SLWHTO02ML</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1388,22 +1368,22 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1955-01</t>
+          <t>1998-01</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1411,19 +1391,15 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>2020=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1436,7 +1412,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>M158PRIT01INB.m</t>
+          <t>M199SWTO02MLS.m</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1446,17 +1422,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>data006</t>
+          <t>data007</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Production &gt; Industry &gt; Total industry &gt; Total industry excluding construction, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Value, Monthly level, s.a., Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PRINTO01IXNB</t>
+          <t>SLWHTO02MLSA</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1466,22 +1442,22 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1955-01</t>
+          <t>1998-01</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -1489,19 +1465,15 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>2020=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1514,42 +1486,42 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>M158STMNTOIBS.m</t>
+          <t>Q158STMNISIBS.q</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_Q_0001</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>data007</t>
+          <t>data001</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Total manufacturing &gt; Volume, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Inventories to shipments &gt; Total, Index source base, s.a., Units of Index(2015=100) - Japan</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>STMNTO01IXNBSA</t>
+          <t>STMNIS01IXNBSA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1955-01</t>
+          <t>1955-Q1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-Q2</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1592,42 +1564,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>M158STMNTOINB.m</t>
+          <t>Q158STMNISINB.q</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_Q_0001</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>data008</t>
+          <t>data002</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Total manufacturing &gt; Volume, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Inventories to shipments &gt; Total, Index source base, Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>STMNTO01IXNB</t>
+          <t>STMNIS01IXNB</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1955-01</t>
+          <t>1998-Q1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-Q2</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1670,7 +1642,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q158PMTO01IBS.q</t>
+          <t>Q158WSCNDWIOB.q</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1680,17 +1652,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>data001</t>
+          <t>data003</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+          <t>Work Started &gt; Construction &gt; Dwellings / Residential buildings &gt; Total, Index 2015=100, Units of Index - Japan</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PRMNTO01IXNBSA</t>
+          <t>WSCNDW01IXOB</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1728,7 +1700,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Work Started</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1748,7 +1720,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q158PMTO01INB.q</t>
+          <t>Q199SRTO01ML.q</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1758,17 +1730,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>data002</t>
+          <t>data004</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Volume, Monthly level, Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PRMNTO01IXNB</t>
+          <t>SLRTTO01ML</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1778,7 +1750,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1955-Q1</t>
+          <t>1977-Q1</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1788,12 +1760,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1801,19 +1773,15 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>2020=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1826,7 +1794,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q158PRENTOIBS.q</t>
+          <t>Q199SRTO01MLS.q</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1836,17 +1804,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>data003</t>
+          <t>data005</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Volume, Monthly level, s.a., Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PRENTO01IXNBSA</t>
+          <t>SLRTTO01MLSA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1856,7 +1824,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1998-Q1</t>
+          <t>1977-Q1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1866,12 +1834,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1879,19 +1847,15 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>2015=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1904,7 +1868,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q158PRENTOINB.q</t>
+          <t>Q199SRTO02IOB.q</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1914,17 +1878,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>data004</t>
+          <t>data006</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Value, Index 2015=100, Units of Index - South Africa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PRENTO01IXNB</t>
+          <t>SLRTTO02IXOB</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1934,7 +1898,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1998-Q1</t>
+          <t>1968-Q3</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1949,7 +1913,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1957,17 +1921,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2020=100</t>
+          <t>2015=100</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1946,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q158PRIT01IBS.q</t>
+          <t>Q199SRTO02ML.q</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1992,17 +1956,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>data005</t>
+          <t>data007</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Production &gt; Industry &gt; Total industry &gt; Total industry excluding construction, Index source base, s.a., Units of Index(2020=100) - Japan</t>
+          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Value, Monthly level, Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PRINTO01IXNBSA</t>
+          <t>SLRTTO02ML</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2012,7 +1976,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1955-Q1</t>
+          <t>1968-Q3</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2022,12 +1986,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2035,19 +1999,15 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>2020=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2060,7 +2020,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q158PRIT01INB.q</t>
+          <t>Q199SRTO02MLS.q</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2070,17 +2030,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>data006</t>
+          <t>data008</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Production &gt; Industry &gt; Total industry &gt; Total industry excluding construction, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Value, Monthly level, s.a., Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PRINTO01IXNB</t>
+          <t>SLRTTO02MLSA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2090,7 +2050,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1955-Q1</t>
+          <t>1968-Q3</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2100,12 +2060,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -2113,19 +2073,15 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>2020=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2138,7 +2094,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q158STMNTOIBS.q</t>
+          <t>Q199SWTO01ML.q</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2148,17 +2104,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>data007</t>
+          <t>data009</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Total manufacturing &gt; Volume, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Volume, Monthly level, Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>STMNTO01IXNBSA</t>
+          <t>SLWHTO01ML</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2168,7 +2124,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1955-Q1</t>
+          <t>1998-Q1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2178,12 +2134,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -2191,19 +2147,15 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Short term statistics</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>2015=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2216,7 +2168,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q158STMNTOINB.q</t>
+          <t>Q199SWTO01MLS.q</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2226,17 +2178,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>data008</t>
+          <t>data010</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Total manufacturing &gt; Volume, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Volume, Monthly level, s.a., Millions of Rand - South Africa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>STMNTO01IXNB</t>
+          <t>SLWHTO01MLSA</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2246,7 +2198,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1955-Q1</t>
+          <t>1998-Q1</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2256,12 +2208,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Millions of Rand</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -2269,19 +2221,163 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Short term statistics</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>2020=100</t>
-        </is>
-      </c>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Q199SWTO02ML.q</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>data011</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Value, Monthly level, Millions of Rand - South Africa</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SLWHTO02ML</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Millions of Rand</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>25</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Q199SWTO02MLS.q</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>data012</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Value, Monthly level, s.a., Millions of Rand - South Africa</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>SLWHTO02MLSA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Millions of Rand</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>26</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MEI/output/MEI_keyNEW.xlsx
+++ b/MEI/output/MEI_keyNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A158STMNISIBS.a</t>
+          <t>A158PRMITOIBS.a</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -469,12 +469,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Inventories to shipments &gt; Total, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+          <t>Production &gt; Mining &gt; Total mining &gt; Total, Index source base, s.a., Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>STMNIS01IXNBSA</t>
+          <t>PRMITO01IXNBSA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Short term statistics</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2015=100</t>
+          <t>2020=100</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A158STMNISINB.a</t>
+          <t>A223MABMM3IOB.a</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Inventories to shipments &gt; Total, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Index 2015=100, Units of Index - Brazil</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>STMNIS01IXNB</t>
+          <t>MABMM301IXOB</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="J3" t="n">
         <v>2022</v>
@@ -569,7 +569,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -577,17 +577,17 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Short term statistics</t>
+          <t>Monetary aggregates and their components</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2020=100</t>
+          <t>2015=100</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A158WSCNDWIOB.a</t>
+          <t>A238SPASTTIOB.a</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Work Started &gt; Construction &gt; Dwellings / Residential buildings &gt; Total, Index 2015=100, Units of Index - Japan</t>
+          <t>Share Prices &gt; All shares/broad &gt; Total &gt; Total, Index 2015=100, Units of Index - Costa Rica</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>WSCNDW01IXOB</t>
+          <t>SPASTT01IXOB</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1955</v>
+        <v>1995</v>
       </c>
       <c r="J4" t="n">
         <v>2022</v>
@@ -643,7 +643,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -651,12 +651,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Work Started</t>
+          <t>Share Prices</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A199SWTO01ML.a</t>
+          <t>A273LCEN04IOS.a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Volume, Monthly level, Millions of Rand - South Africa</t>
+          <t>Labour Compensation &gt; Earnings &gt; Manufacturing &gt; Real monthly earnings, Index 2015=100, s.a., Units of Index - Mexico</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SLWHTO01ML</t>
+          <t>LCEAMN04IXOBSA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -705,19 +705,19 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="J5" t="n">
         <v>2022</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -725,15 +725,19 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
+          <t>Labour Compensation</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -746,7 +750,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A199SWTO01MLS.a</t>
+          <t>A273PMTO01IBS.a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -761,12 +765,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Volume, Monthly level, s.a., Millions of Rand - South Africa</t>
+          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, s.a., Units of Index(2015=100) - Mexico</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SLWHTO01MLSA</t>
+          <t>PRMNTO01IXNBSA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -775,19 +779,19 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="J6" t="n">
         <v>2022</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -795,15 +799,19 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -816,7 +824,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A199SWTO02ML.a</t>
+          <t>A273PMTO01INB.a</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -831,12 +839,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Value, Monthly level, Millions of Rand - South Africa</t>
+          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, Units of Index(2018=100) - Mexico</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SLWHTO02ML</t>
+          <t>PRMNTO01IXNB</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -845,19 +853,19 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="J7" t="n">
         <v>2022</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -865,15 +873,19 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -886,7 +898,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A199SWTO02MLS.a</t>
+          <t>A273PRCNTOINB.a</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -901,12 +913,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Value, Monthly level, s.a., Millions of Rand - South Africa</t>
+          <t>Production &gt; Construction &gt; Total construction &gt; Total, Index source base, Units of Index(2018=100) - Mexico</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SLWHTO02MLSA</t>
+          <t>PRCNTO01IXNB</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -915,19 +927,19 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="J8" t="n">
         <v>2022</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -935,15 +947,19 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -956,43 +972,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>M158STMNISIBS.m</t>
+          <t>A273PRENTOINB.a</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>data001</t>
+          <t>data008</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Inventories to shipments &gt; Total, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, Units of Index(2018=100) - Mexico</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>STMNIS01IXNBSA</t>
+          <t>PRENTO01IXNB</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1955-01</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2023-07</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1980</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2022</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1001,7 +1013,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1009,17 +1021,17 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Short term statistics</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2015=100</t>
+          <t>2018=100</t>
         </is>
       </c>
     </row>
@@ -1034,43 +1046,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>M158STMNISINB.m</t>
+          <t>A273PRIT02IBS.a</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>data002</t>
+          <t>data009</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Inventories to shipments &gt; Total, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Production &gt; Industry &gt; Total industry &gt; Total industry including construction, Index source base, s.a., Units of Index(2015=100) - Mexico</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>STMNIS01IXNB</t>
+          <t>PRINTO02IXNBSA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1998-01</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2023-07</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1980</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2022</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1079,7 +1087,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1087,17 +1095,17 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Short term statistics</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2020=100</t>
+          <t>2015=100</t>
         </is>
       </c>
     </row>
@@ -1112,43 +1120,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>M158WSCNDWIOB.m</t>
+          <t>A273PRIT02INB.a</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>data003</t>
+          <t>data010</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Work Started &gt; Construction &gt; Dwellings / Residential buildings &gt; Total, Index 2015=100, Units of Index - Japan</t>
+          <t>Production &gt; Industry &gt; Total industry &gt; Total industry including construction, Index source base, Units of Index(2018=100) - Mexico</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>WSCNDW01IXOB</t>
+          <t>PRINTO02IXNB</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1955-01</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2023-07</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1980</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2022</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1157,7 +1161,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1165,17 +1169,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Work Started</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2015=100</t>
+          <t>2018=100</t>
         </is>
       </c>
     </row>
@@ -1190,52 +1194,48 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>M199SWTO01ML.m</t>
+          <t>A273PRMITOIBS.a</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>data004</t>
+          <t>data011</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Volume, Monthly level, Millions of Rand - South Africa</t>
+          <t>Production &gt; Mining &gt; Total mining &gt; Total, Index source base, s.a., Units of Index(2015=100) - Mexico</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SLWHTO01ML</t>
+          <t>PRMITO01IXNBSA</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1998-01</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2023-07</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1980</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2022</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1243,15 +1243,19 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1264,52 +1268,48 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>M199SWTO01MLS.m</t>
+          <t>A273PRMITOINB.a</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>data005</t>
+          <t>data012</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Volume, Monthly level, s.a., Millions of Rand - South Africa</t>
+          <t>Production &gt; Mining &gt; Total mining &gt; Total, Index source base, Units of Index(2018=100) - Mexico</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SLWHTO01MLSA</t>
+          <t>PRMITO01IXNB</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1998-01</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>2023-07</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1980</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2022</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1317,15 +1317,19 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1338,52 +1342,48 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>M199SWTO02ML.m</t>
+          <t>A273SRTO01IBS.a</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>data006</t>
+          <t>data013</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Value, Monthly level, Millions of Rand - South Africa</t>
+          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Volume, Index source base, s.a., Units of Index(2015=100) - Mexico</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SLWHTO02ML</t>
+          <t>SLRTTO01IXNBSA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1998-01</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2023-07</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1986</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2022</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1399,7 +1399,11 @@
           <t>Sales</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1412,52 +1416,48 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>M199SWTO02MLS.m</t>
+          <t>A273SRTO01INB.a</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DB_M_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>data007</t>
+          <t>data014</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Value, Monthly level, s.a., Millions of Rand - South Africa</t>
+          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Volume, Index source base, Units of Index(2018=100) - Mexico</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SLWHTO02MLSA</t>
+          <t>SLRTTO01IXNB</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1998-01</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2023-07</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1986</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2022</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1473,7 +1473,11 @@
           <t>Sales</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1486,43 +1490,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q158STMNISIBS.q</t>
+          <t>A918MABMM3IOB.a</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>data001</t>
+          <t>data015</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Inventories to shipments &gt; Total, Index source base, s.a., Units of Index(2015=100) - Japan</t>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Index 2015=100, Units of Index - Bulgaria</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>STMNIS01IXNBSA</t>
+          <t>MABMM301IXOB</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1955-Q1</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1996</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2022</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Short term statistics</t>
+          <t>Monetary aggregates and their components</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1564,43 +1564,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q158STMNISINB.q</t>
+          <t>A918MABMM3IOS.a</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>data002</t>
+          <t>data016</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Short term statistics &gt; Stocks - Manufacturing &gt; Inventories to shipments &gt; Total, Index source base, Units of Index(2020=100) - Japan</t>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Index 2015=100, s.a., Units of Index - Bulgaria</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>STMNIS01IXNB</t>
+          <t>MABMM301IXOBSA</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1998-Q1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1996</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2022</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1609,7 +1605,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1617,17 +1613,17 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Short term statistics</t>
+          <t>Monetary aggregates and their components</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2020=100</t>
+          <t>2015=100</t>
         </is>
       </c>
     </row>
@@ -1642,52 +1638,48 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q158WSCNDWIOB.q</t>
+          <t>A918MANMM1GPS.a</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>data003</t>
+          <t>data017</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Work Started &gt; Construction &gt; Dwellings / Residential buildings &gt; Total, Index 2015=100, Units of Index - Japan</t>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Growth rate previous period, s.a., Units of Percentage - Bulgaria</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>WSCNDW01IXOB</t>
+          <t>MANMM101GPSA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1955-Q1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1997</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2022</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Units of Index</t>
+          <t>Units of Percentage</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1695,19 +1687,15 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Work Started</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>2015=100</t>
-        </is>
-      </c>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1720,52 +1708,48 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q199SRTO01ML.q</t>
+          <t>A918MANMM1IOS.a</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>data004</t>
+          <t>data018</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Volume, Monthly level, Millions of Rand - South Africa</t>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Index 2015=100, s.a., Units of Index - Bulgaria</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SLRTTO01ML</t>
+          <t>MANMM101IXOBSA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1977-Q1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1996</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2022</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1773,15 +1757,19 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1794,52 +1782,48 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q199SRTO01MLS.q</t>
+          <t>A964MANMM1STS.a</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_A_0001</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>data005</t>
+          <t>data019</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Volume, Monthly level, s.a., Millions of Rand - South Africa</t>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Level, rate or national currency, s.a., Billions of Zloty - Poland</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SLRTTO01MLSA</t>
+          <t>MANMM101STSA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1977-Q1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2023-Q2</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1990</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2022</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Billions of Zloty</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1847,12 +1831,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Monetary aggregates and their components</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1868,42 +1852,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q199SRTO02IOB.q</t>
+          <t>M158PRMITOIBS.m</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>data006</t>
+          <t>data001</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Value, Index 2015=100, Units of Index - South Africa</t>
+          <t>Production &gt; Mining &gt; Total mining &gt; Total, Index source base, s.a., Units of Index(2020=100) - Japan</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SLRTTO02IXOB</t>
+          <t>PRMITO01IXNBSA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1968-Q3</t>
+          <t>1998-01</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2023-Q2</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1913,7 +1897,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1921,17 +1905,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2015=100</t>
+          <t>2020=100</t>
         </is>
       </c>
     </row>
@@ -1946,52 +1930,52 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q199SRTO02ML.q</t>
+          <t>M238SPASTTIOB.m</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>data007</t>
+          <t>data002</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Value, Monthly level, Millions of Rand - South Africa</t>
+          <t>Share Prices &gt; All shares/broad &gt; Total &gt; Total, Index 2015=100, Units of Index - Costa Rica</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SLRTTO02ML</t>
+          <t>SPASTT01IXOB</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1968-Q3</t>
+          <t>1995-01</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2023-Q2</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1999,15 +1983,19 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
+          <t>Share Prices</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2020,52 +2008,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q199SRTO02MLS.q</t>
+          <t>M273LCEN04IOS.m</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>data008</t>
+          <t>data003</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Value, Monthly level, s.a., Millions of Rand - South Africa</t>
+          <t>Labour Compensation &gt; Earnings &gt; Manufacturing &gt; Real monthly earnings, Index 2015=100, s.a., Units of Index - Mexico</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SLRTTO02MLSA</t>
+          <t>LCEAMN04IXOBSA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1968-Q3</t>
+          <t>1980-01</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2023-Q2</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -2073,15 +2061,19 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
+          <t>Labour Compensation</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2094,52 +2086,52 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q199SWTO01ML.q</t>
+          <t>M273PMTO01IBS.m</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>data009</t>
+          <t>data004</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Volume, Monthly level, Millions of Rand - South Africa</t>
+          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, s.a., Units of Index(2015=100) - Mexico</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SLWHTO01ML</t>
+          <t>PRMNTO01IXNBSA</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1998-Q1</t>
+          <t>1993-01</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2023-Q2</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -2147,15 +2139,19 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2168,52 +2164,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q199SWTO01MLS.q</t>
+          <t>M273PMTO01INB.m</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>data010</t>
+          <t>data005</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Volume, Monthly level, s.a., Millions of Rand - South Africa</t>
+          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, Units of Index(2018=100) - Mexico</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SLWHTO01MLSA</t>
+          <t>PRMNTO01IXNB</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1998-Q1</t>
+          <t>1993-01</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2023-Q2</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -2221,15 +2217,19 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2242,52 +2242,52 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q199SWTO02ML.q</t>
+          <t>M273PRCNTOINB.m</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>data011</t>
+          <t>data006</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Value, Monthly level, Millions of Rand - South Africa</t>
+          <t>Production &gt; Construction &gt; Total construction &gt; Total, Index source base, Units of Index(2018=100) - Mexico</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SLWHTO02ML</t>
+          <t>PRCNTO01IXNB</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1998-Q1</t>
+          <t>1980-01</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2023-Q2</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -2295,15 +2295,19 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2316,52 +2320,52 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q199SWTO02MLS.q</t>
+          <t>M273PRENTOINB.m</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DB_Q_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>data012</t>
+          <t>data007</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sales &gt; Wholesale trade &gt; Total wholesale trade &gt; Value, Monthly level, s.a., Millions of Rand - South Africa</t>
+          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, Units of Index(2018=100) - Mexico</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SLWHTO02MLSA</t>
+          <t>PRENTO01IXNB</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1998-Q1</t>
+          <t>1980-01</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2023-Q2</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Millions of Rand</t>
+          <t>Units of Index</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -2369,15 +2373,3691 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>M273PRIT02IBS.m</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>data008</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Production &gt; Industry &gt; Total industry &gt; Total industry including construction, Index source base, s.a., Units of Index(2015=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>PRINTO02IXNBSA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1980-01</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>27</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>M273PRIT02INB.m</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>data009</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Production &gt; Industry &gt; Total industry &gt; Total industry including construction, Index source base, Units of Index(2018=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>PRINTO02IXNB</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1980-01</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>28</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>M273PRMITOIBS.m</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>data010</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Production &gt; Mining &gt; Total mining &gt; Total, Index source base, s.a., Units of Index(2015=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>PRMITO01IXNBSA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1980-01</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>29</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>M273PRMITOINB.m</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>data011</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Production &gt; Mining &gt; Total mining &gt; Total, Index source base, Units of Index(2018=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>PRMITO01IXNB</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1980-01</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>30</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>M273SRTO01IBS.m</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>data012</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Volume, Index source base, s.a., Units of Index(2015=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>SLRTTO01IXNBSA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>31</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>M273SRTO01INB.m</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>data013</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Volume, Index source base, Units of Index(2018=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SLRTTO01IXNB</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1986-01</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>32</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>M918MABMM3GPS.m</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Growth rate previous period, s.a., Units of Percentage - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>MABMM301GPSA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1996-02</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>33</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>M918MABMM3GYS.m</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Growth rate same period previous year, s.a., Units of Percentage - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>MABMM301GYSA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1997-01</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>34</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>M918MABMM3IOB.m</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Index 2015=100, Units of Index - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>MABMM301IXOB</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1996-01</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>35</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>M918MABMM3IOS.m</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Index 2015=100, s.a., Units of Index - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>MABMM301IXOBSA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1996-01</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>36</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>M918MABMM3ST.m</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Level, rate or national currency, Millions of Bulgarian Lev - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MABMM301ST</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1995-12</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Millions of Bulgarian Lev</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>37</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>M918MABMM3STS.m</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>data019</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Level, rate or national currency, s.a., Millions of Bulgarian Lev - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>MABMM301STSA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1996-01</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Millions of Bulgarian Lev</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>38</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>M918MANMM1GPS.m</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>data020</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Growth rate previous period, s.a., Units of Percentage - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>MANMM101GPSA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1996-02</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>39</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>M918MANMM1GYS.m</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>data021</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Growth rate same period previous year, s.a., Units of Percentage - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>MANMM101GYSA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1997-01</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>40</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>M918MANMM1IOB.m</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>data022</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Index 2015=100, Units of Index - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>MANMM101IXOB</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1996-01</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>41</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>M918MANMM1IOS.m</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>data023</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Index 2015=100, s.a., Units of Index - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>MANMM101IXOBSA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1996-01</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>42</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>M918MANMM1ST.m</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>data024</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Level, rate or national currency, Millions of Bulgarian Lev - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>MANMM101ST</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1995-12</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Millions of Bulgarian Lev</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>43</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>M918MANMM1STS.m</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>data025</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Level, rate or national currency, s.a., Millions of Bulgarian Lev - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MANMM101STSA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1996-01</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Millions of Bulgarian Lev</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>44</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>M964MANMM1STS.m</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>data026</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Level, rate or national currency, s.a., Billions of Zloty - Poland</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>MANMM101STSA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1990-01</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Billions of Zloty</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>45</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>M968MABMM3GPS.m</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>data027</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Growth rate previous period, s.a., Units of Percentage - Romania</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>MABMM301GPSA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>46</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>M968MABMM3GYS.m</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>data028</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Growth rate same period previous year, s.a., Units of Percentage - Romania</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>MABMM301GYSA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>47</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>M968MABMM3IOB.m</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>data029</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Index 2015=100, Units of Index - Romania</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>MABMM301IXOB</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>48</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>M968MABMM3IOS.m</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>data030</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Index 2015=100, s.a., Units of Index - Romania</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>MABMM301IXOBSA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>49</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>M968MABMM3ST.m</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>data031</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Level, rate or national currency, Millions of Romanian Leu - Romania</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>MABMM301ST</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Millions of Romanian Leu</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>50</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>M968MABMM3STS.m</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>data032</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Level, rate or national currency, s.a., Millions of Romanian Leu - Romania</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>MABMM301STSA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Millions of Romanian Leu</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>51</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>M968MANMM1GYS.m</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>data033</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Growth rate same period previous year, s.a., Units of Percentage - Romania</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>MANMM101GYSA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>52</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>M968MANMM1IOB.m</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>data034</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Index 2015=100, Units of Index - Romania</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>MANMM101IXOB</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>53</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>M968MANMM1IOS.m</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>data035</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Index 2015=100, s.a., Units of Index - Romania</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MANMM101IXOBSA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>54</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>M968MANMM1ST.m</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>data036</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Level, rate or national currency, Millions of Romanian Leu - Romania</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MANMM101ST</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Millions of Romanian Leu</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>55</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>M968MANMM1STS.m</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>data037</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Level, rate or national currency, s.a., Millions of Romanian Leu - Romania</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>MANMM101STSA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Millions of Romanian Leu</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>56</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Q158PRMITOIBS.q</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>data001</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Production &gt; Mining &gt; Total mining &gt; Total, Index source base, s.a., Units of Index(2020=100) - Japan</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>PRMITO01IXNBSA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>57</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>2020=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Q238SPASTTIOB.q</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>data002</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Share Prices &gt; All shares/broad &gt; Total &gt; Total, Index 2015=100, Units of Index - Costa Rica</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>SPASTT01IXOB</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>58</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Share Prices</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Q273LCEN04IOS.q</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Labour Compensation &gt; Earnings &gt; Manufacturing &gt; Real monthly earnings, Index 2015=100, s.a., Units of Index - Mexico</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>LCEAMN04IXOBSA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1980-Q1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>59</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Labour Compensation</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Q273PMTO01IBS.q</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, s.a., Units of Index(2015=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>PRMNTO01IXNBSA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>60</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Q273PMTO01INB.q</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Production &gt; Manufacturing &gt; Total manufacturing &gt; Total manufacturing, Index source base, Units of Index(2018=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>PRMNTO01IXNB</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>61</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Q273PRCNTOINB.q</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>data006</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Production &gt; Construction &gt; Total construction &gt; Total, Index source base, Units of Index(2018=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>PRCNTO01IXNB</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1980-Q1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>62</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Q273PRENTOINB.q</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>data007</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Production &gt; Energy &gt; Total energy &gt; Total, Index source base, Units of Index(2018=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>PRENTO01IXNB</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1980-Q1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>63</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Q273PRIT02IBS.q</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>data008</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Production &gt; Industry &gt; Total industry &gt; Total industry including construction, Index source base, s.a., Units of Index(2015=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>PRINTO02IXNBSA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1980-Q1</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>64</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Q273PRIT02INB.q</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>data009</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Production &gt; Industry &gt; Total industry &gt; Total industry including construction, Index source base, Units of Index(2018=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>PRINTO02IXNB</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1980-Q1</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>65</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Q273PRMITOIBS.q</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>data010</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Production &gt; Mining &gt; Total mining &gt; Total, Index source base, s.a., Units of Index(2015=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>PRMITO01IXNBSA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1980-Q1</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>66</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Q273PRMITOINB.q</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>data011</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Production &gt; Mining &gt; Total mining &gt; Total, Index source base, Units of Index(2018=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>PRMITO01IXNB</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1980-Q1</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>67</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Q273SRTO01IBS.q</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>data012</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Volume, Index source base, s.a., Units of Index(2015=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>SLRTTO01IXNBSA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>68</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Q273SRTO01INB.q</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>data013</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sales &gt; Retail trade &gt; Total retail trade &gt; Volume, Index source base, Units of Index(2018=100) - Mexico</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>SLRTTO01IXNB</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1986-Q1</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2023-Q2</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>69</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>2018=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Q918MABMM3IOB.q</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Index 2015=100, Units of Index - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>MABMM301IXOB</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>70</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Q918MABMM3IOS.q</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Broad money and components &gt; M3 &gt; M3, Index 2015=100, s.a., Units of Index - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>MABMM301IXOBSA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>71</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Q918MANMM1GPS.q</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Growth rate previous period, s.a., Units of Percentage - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>MANMM101GPSA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Units of Percentage</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>72</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Q918MANMM1IOS.q</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Index 2015=100, s.a., Units of Index - Bulgaria</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>MANMM101IXOBSA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Units of Index</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>73</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>2015=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Q964MANMM1STS.q</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components &gt; Narrow money and components &gt; M1 and components &gt; M1, Level, rate or national currency, s.a., Billions of Zloty - Poland</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>MANMM101STSA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1990-Q1</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2023-Q3</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Billions of Zloty</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>74</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Monetary aggregates and their components</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
